--- a/sonstige/data/published-variants-for-simulation_2021-01-22.xlsx
+++ b/sonstige/data/published-variants-for-simulation_2021-01-22.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{451D6604-88DE-4942-B898-0FF52B480E7D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B6D4AAD-5DE6-0E4B-9018-B8DE5BA81DF5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="68800" windowHeight="27240" activeTab="1" xr2:uid="{AE07EF24-9AED-F04B-83D6-329CC7A00702}"/>
+    <workbookView xWindow="1060" yWindow="500" windowWidth="67740" windowHeight="27240" activeTab="1" xr2:uid="{AE07EF24-9AED-F04B-83D6-329CC7A00702}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="3" r:id="rId1"/>
@@ -2176,7 +2176,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A23" sqref="A23:XFD23"/>
+      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2232,7 +2232,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>335</v>
       </c>
@@ -2270,7 +2270,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>335</v>
       </c>
@@ -2308,7 +2308,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>336</v>
       </c>
@@ -2422,7 +2422,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>338</v>
       </c>
@@ -2498,7 +2498,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>340</v>
       </c>
@@ -2574,7 +2574,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>342</v>
       </c>
@@ -2612,7 +2612,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>343</v>
       </c>
@@ -2650,7 +2650,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>284</v>
       </c>
@@ -2688,7 +2688,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>285</v>
       </c>
@@ -2726,7 +2726,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>286</v>
       </c>
@@ -2764,7 +2764,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>287</v>
       </c>
@@ -2802,7 +2802,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>288</v>
       </c>
@@ -2954,7 +2954,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>292</v>
       </c>
@@ -2992,7 +2992,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>293</v>
       </c>
@@ -3296,7 +3296,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>301</v>
       </c>
@@ -3334,7 +3334,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>302</v>
       </c>
@@ -3372,7 +3372,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>303</v>
       </c>
@@ -3410,7 +3410,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>304</v>
       </c>
@@ -3448,7 +3448,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>305</v>
       </c>
@@ -3486,7 +3486,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>306</v>
       </c>
@@ -3524,7 +3524,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>307</v>
       </c>
@@ -3562,7 +3562,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>308</v>
       </c>
@@ -3600,7 +3600,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>309</v>
       </c>
@@ -3638,7 +3638,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>310</v>
       </c>
@@ -3676,7 +3676,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>310</v>
       </c>
@@ -3714,7 +3714,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>311</v>
       </c>
@@ -3752,7 +3752,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>311</v>
       </c>
@@ -3790,7 +3790,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>312</v>
       </c>
@@ -3828,7 +3828,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>313</v>
       </c>
@@ -3866,7 +3866,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>314</v>
       </c>
@@ -3904,7 +3904,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="46" spans="1:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>314</v>
       </c>
@@ -3942,7 +3942,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="47" spans="1:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>315</v>
       </c>
@@ -3980,7 +3980,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>316</v>
       </c>
@@ -4018,7 +4018,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>316</v>
       </c>
@@ -4056,7 +4056,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="50" spans="1:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>317</v>
       </c>
@@ -4094,7 +4094,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>317</v>
       </c>
@@ -4132,7 +4132,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="52" spans="1:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>318</v>
       </c>
@@ -4170,7 +4170,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>319</v>
       </c>
@@ -4246,7 +4246,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="55" spans="1:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>321</v>
       </c>
@@ -4284,7 +4284,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="56" spans="1:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>322</v>
       </c>
@@ -4322,7 +4322,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="57" spans="1:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="2" t="s">
         <v>323</v>
       </c>
@@ -4398,7 +4398,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="59" spans="1:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="2" t="s">
         <v>325</v>
       </c>
@@ -4436,7 +4436,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="60" spans="1:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="2" t="s">
         <v>326</v>
       </c>
@@ -4474,7 +4474,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="61" spans="1:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="2" t="s">
         <v>327</v>
       </c>
@@ -4512,7 +4512,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="62" spans="1:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="2" t="s">
         <v>328</v>
       </c>
@@ -4550,7 +4550,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="63" spans="1:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="2" t="s">
         <v>329</v>
       </c>
@@ -4588,7 +4588,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="64" spans="1:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="2" t="s">
         <v>330</v>
       </c>
@@ -4626,7 +4626,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="65" spans="1:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="2" t="s">
         <v>331</v>
       </c>
@@ -4664,7 +4664,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="66" spans="1:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="2" t="s">
         <v>332</v>
       </c>
@@ -4702,7 +4702,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="67" spans="1:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="2" t="s">
         <v>333</v>
       </c>
@@ -4740,7 +4740,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="68" spans="1:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="2" t="s">
         <v>334</v>
       </c>
@@ -4778,7 +4778,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="69" spans="1:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="2" t="s">
         <v>411</v>
       </c>
@@ -4816,7 +4816,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="70" spans="1:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="2" t="s">
         <v>412</v>
       </c>
@@ -4854,7 +4854,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="71" spans="1:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="2" t="s">
         <v>413</v>
       </c>
@@ -4892,7 +4892,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="72" spans="1:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="2" t="s">
         <v>414</v>
       </c>
@@ -4930,7 +4930,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="73" spans="1:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="2" t="s">
         <v>415</v>
       </c>
@@ -4968,7 +4968,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="74" spans="1:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="2" t="s">
         <v>416</v>
       </c>
@@ -5006,7 +5006,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="75" spans="1:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="2" t="s">
         <v>417</v>
       </c>
@@ -5044,7 +5044,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="76" spans="1:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="2" t="s">
         <v>418</v>
       </c>
@@ -5082,7 +5082,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="77" spans="1:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="2" t="s">
         <v>419</v>
       </c>
@@ -5120,7 +5120,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="78" spans="1:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
         <v>431</v>
       </c>
@@ -5158,7 +5158,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="79" spans="1:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>467</v>
       </c>
@@ -5272,7 +5272,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="82" spans="1:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
         <v>470</v>
       </c>
@@ -5310,7 +5310,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="83" spans="1:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
         <v>471</v>
       </c>
@@ -5348,7 +5348,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="84" spans="1:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
         <v>472</v>
       </c>
@@ -5386,7 +5386,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="85" spans="1:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
         <v>473</v>
       </c>
@@ -5424,7 +5424,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="86" spans="1:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
         <v>474</v>
       </c>
@@ -5462,7 +5462,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="87" spans="1:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
         <v>475</v>
       </c>
@@ -5500,7 +5500,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="88" spans="1:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
         <v>476</v>
       </c>
@@ -5538,7 +5538,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="89" spans="1:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
         <v>477</v>
       </c>
@@ -5576,7 +5576,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="90" spans="1:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
         <v>478</v>
       </c>
@@ -5614,7 +5614,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="91" spans="1:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
         <v>479</v>
       </c>
@@ -5652,7 +5652,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="92" spans="1:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
         <v>480</v>
       </c>
@@ -5690,7 +5690,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="93" spans="1:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
         <v>481</v>
       </c>
@@ -5728,7 +5728,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="94" spans="1:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
         <v>482</v>
       </c>
@@ -5804,7 +5804,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="96" spans="1:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
         <v>484</v>
       </c>
@@ -5877,7 +5877,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="98" spans="1:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
         <v>486</v>
       </c>
@@ -5915,7 +5915,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="99" spans="1:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
         <v>487</v>
       </c>
@@ -5953,7 +5953,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="100" spans="1:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
         <v>488</v>
       </c>
@@ -5991,7 +5991,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="101" spans="1:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
         <v>489</v>
       </c>
@@ -6029,7 +6029,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="102" spans="1:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
         <v>490</v>
       </c>
@@ -6067,7 +6067,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="103" spans="1:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
         <v>491</v>
       </c>
@@ -6105,7 +6105,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="104" spans="1:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
         <v>492</v>
       </c>
@@ -6143,7 +6143,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="105" spans="1:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
         <v>493</v>
       </c>
@@ -6181,7 +6181,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="106" spans="1:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
         <v>494</v>
       </c>
@@ -6219,7 +6219,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="107" spans="1:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
         <v>495</v>
       </c>
@@ -6257,7 +6257,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="108" spans="1:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
         <v>496</v>
       </c>
@@ -6297,11 +6297,6 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:L108" xr:uid="{F0C3FC31-4AD0-4B65-98DC-63CD790C1268}">
-    <filterColumn colId="3">
-      <customFilters>
-        <customFilter val="*X-*"/>
-      </customFilters>
-    </filterColumn>
     <filterColumn colId="11">
       <filters>
         <filter val="yes"/>
